--- a/template/horaire.xlsx
+++ b/template/horaire.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/etiennerivard/notes_de_cours/bd1/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="h:\Users\Simon\Desktop\BD1\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4218E7-1EF5-A148-9FC2-DC835B28065C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFED3983-5322-4A2F-AF02-3E2C23F193E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{A6EAA84D-6E98-BB4B-8698-E4F48E48897D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20220" windowHeight="15600" xr2:uid="{A6EAA84D-6E98-BB4B-8698-E4F48E48897D}"/>
   </bookViews>
   <sheets>
     <sheet name="horaire" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="60">
   <si>
     <t xml:space="preserve"> Cours </t>
   </si>
@@ -59,9 +59,6 @@
     <t xml:space="preserve"> Remises </t>
   </si>
   <si>
-    <t xml:space="preserve"> 17 janv </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1.1, 1.2 </t>
   </si>
   <si>
@@ -71,9 +68,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve"> 19 janv </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1.2 à 1.4 </t>
   </si>
   <si>
@@ -83,24 +77,15 @@
     <t xml:space="preserve"> Atelier 1 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 24 janv </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Clés étrangères et relations </t>
   </si>
   <si>
     <t xml:space="preserve"> Atelier 2 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 26-janv </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Create/Update/Delete </t>
   </si>
   <si>
-    <t xml:space="preserve"> 31 janv </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Sélection simple, filtrage et logique </t>
   </si>
   <si>
@@ -110,15 +95,9 @@
     <t xml:space="preserve"> Atelier 3 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 02 févr </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Atelier 4 - formatif formel </t>
   </si>
   <si>
-    <t xml:space="preserve"> 07 févr </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Dates </t>
   </si>
   <si>
@@ -128,48 +107,27 @@
     <t xml:space="preserve"> Atelier 4 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 09-févr </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Jointures et aggrégats </t>
   </si>
   <si>
-    <t xml:space="preserve"> 14 févr </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Atelier 6 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 16 févr </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Fonctions statistiques </t>
   </si>
   <si>
     <t xml:space="preserve"> Atelier 7 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 21 févr </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Examen de pratique </t>
   </si>
   <si>
-    <t xml:space="preserve"> 23 févr </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Révision de tout avant l'examen </t>
   </si>
   <si>
-    <t xml:space="preserve"> 28 févr </t>
-  </si>
-  <si>
     <t xml:space="preserve">Examen sommatif requêtes </t>
   </si>
   <si>
-    <t xml:space="preserve"> 01 mars </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 3.1 à 3.3 </t>
   </si>
   <si>
@@ -179,9 +137,6 @@
     <t xml:space="preserve"> Sauvegarder/restaurer une BD </t>
   </si>
   <si>
-    <t xml:space="preserve"> 13 mars </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Contraintes intégrités </t>
   </si>
   <si>
@@ -191,27 +146,15 @@
     <t xml:space="preserve"> Atelier 8 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 15 mars </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Cryptage et sécurité </t>
   </si>
   <si>
-    <t xml:space="preserve"> 22-mars </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Gestion des accès </t>
   </si>
   <si>
-    <t xml:space="preserve"> 27 mars </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Temps travail </t>
   </si>
   <si>
-    <t xml:space="preserve"> 03 avr </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 5.1, 5.2 </t>
   </si>
   <si>
@@ -224,15 +167,9 @@
     <t xml:space="preserve"> Atelier 9</t>
   </si>
   <si>
-    <t xml:space="preserve"> 05 avr </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Ateliers fonctions </t>
   </si>
   <si>
-    <t xml:space="preserve"> 10 avr </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Déclencheurs </t>
   </si>
   <si>
@@ -242,55 +179,28 @@
     <t xml:space="preserve"> Atelier 9 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 12 avr </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Atelier déclencheurs </t>
   </si>
   <si>
-    <t xml:space="preserve"> 17 avr </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Procedure, transactions et gestion d'erreurs </t>
   </si>
   <si>
-    <t xml:space="preserve"> 22 avr </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Ateliers procédures </t>
   </si>
   <si>
     <t xml:space="preserve"> Atelier 11 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 24 avr </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 26 avr </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Révision </t>
   </si>
   <si>
     <t xml:space="preserve"> Atelier 11&lt;br/&gt;**TP à remettre** </t>
   </si>
   <si>
-    <t xml:space="preserve"> 01 mai </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 03 mai </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Pratique d'examen </t>
   </si>
   <si>
-    <t xml:space="preserve"> 08 mai </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Retour sur la pratique d'examen </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10 mai </t>
   </si>
   <si>
     <t xml:space="preserve"> **Examen final** </t>
@@ -341,8 +251,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -361,7 +272,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -679,19 +590,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74CAC760-03D5-2B4F-8B8A-787BA19A8433}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="45" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -715,778 +627,778 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1">
+        <v>45677</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1">
+        <v>45679</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
       <c r="H3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
+      <c r="C4" s="1">
+        <v>45684</v>
       </c>
       <c r="D4">
         <v>1.5</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>18</v>
+      <c r="C5" s="1">
+        <v>45686</v>
       </c>
       <c r="D5">
         <v>2.1</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
-        <v>20</v>
+      <c r="C6" s="1">
+        <v>45691</v>
       </c>
       <c r="D6">
         <v>2.2000000000000002</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
+      <c r="C7" s="1">
+        <v>45693</v>
       </c>
       <c r="D7">
         <v>2.2999999999999998</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>26</v>
+      <c r="C8" s="1">
+        <v>45698</v>
       </c>
       <c r="D8">
         <v>2.4</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>30</v>
+      <c r="C9" s="1">
+        <v>45700</v>
       </c>
       <c r="D9">
         <v>2.5</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
-        <v>32</v>
+      <c r="C10" s="1">
+        <v>45705</v>
       </c>
       <c r="D10">
         <v>2.5</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
-        <v>34</v>
+      <c r="C11" s="1">
+        <v>45707</v>
       </c>
       <c r="D11">
         <v>2.6</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="H11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
-        <v>37</v>
+      <c r="C12" s="1">
+        <v>45712</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
-        <v>39</v>
+      <c r="C13" s="1">
+        <v>45714</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>7</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
-        <v>41</v>
+      <c r="C14" s="1">
+        <v>45726</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
-        <v>43</v>
+      <c r="C15" s="1">
+        <v>45728</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8</v>
       </c>
       <c r="B16">
         <v>15</v>
       </c>
-      <c r="C16" t="s">
-        <v>47</v>
+      <c r="C16" s="1">
+        <v>45733</v>
       </c>
       <c r="D16">
         <v>4.0999999999999996</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F16" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17">
         <v>16</v>
       </c>
-      <c r="C17" t="s">
-        <v>51</v>
+      <c r="C17" s="1">
+        <v>45735</v>
       </c>
       <c r="D17">
         <v>4.2</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F17" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="G17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>9</v>
       </c>
       <c r="B18">
         <v>17</v>
       </c>
-      <c r="C18" t="s">
-        <v>53</v>
+      <c r="C18" s="1">
+        <v>45740</v>
       </c>
       <c r="D18">
         <v>4.3</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19">
         <v>18</v>
       </c>
-      <c r="C19" t="s">
-        <v>55</v>
+      <c r="C19" s="1">
+        <v>45742</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10</v>
       </c>
       <c r="B20">
         <v>19</v>
       </c>
-      <c r="C20" t="s">
-        <v>57</v>
+      <c r="C20" s="1">
+        <v>45747</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21">
         <v>20</v>
       </c>
-      <c r="C21" t="s">
-        <v>62</v>
+      <c r="C21" s="1">
+        <v>45749</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>11</v>
       </c>
       <c r="B22">
         <v>21</v>
       </c>
-      <c r="C22" t="s">
-        <v>64</v>
+      <c r="C22" s="1">
+        <v>45754</v>
       </c>
       <c r="D22">
         <v>5.2</v>
       </c>
       <c r="E22" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G22" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23">
         <v>22</v>
       </c>
-      <c r="C23" t="s">
-        <v>68</v>
+      <c r="C23" s="1">
+        <v>45756</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>12</v>
       </c>
       <c r="B24">
         <v>23</v>
       </c>
-      <c r="C24" t="s">
-        <v>70</v>
+      <c r="C24" s="1">
+        <v>45761</v>
       </c>
       <c r="D24">
         <v>5.3</v>
       </c>
       <c r="E24" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="F24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B25">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>72</v>
+      <c r="C25" s="1">
+        <v>45763</v>
       </c>
       <c r="D25">
         <v>5.3</v>
       </c>
       <c r="E25" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G25" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="H25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>13</v>
       </c>
       <c r="B26">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
-        <v>75</v>
+      <c r="C26" s="1">
+        <v>45770</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B27">
         <v>26</v>
       </c>
-      <c r="C27" t="s">
-        <v>76</v>
+      <c r="C27" s="1">
+        <v>45775</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="F27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>14</v>
       </c>
       <c r="B28">
         <v>27</v>
       </c>
-      <c r="C28" t="s">
-        <v>79</v>
+      <c r="C28" s="1">
+        <v>45777</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="F28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H28" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29">
         <v>28</v>
       </c>
-      <c r="C29" t="s">
-        <v>80</v>
+      <c r="C29" s="1">
+        <v>45782</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="F29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>15</v>
       </c>
       <c r="B30">
         <v>29</v>
       </c>
-      <c r="C30" t="s">
-        <v>82</v>
+      <c r="C30" s="1">
+        <v>45784</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="F30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B31">
         <v>30</v>
       </c>
-      <c r="C31" t="s">
-        <v>84</v>
+      <c r="C31" s="1">
+        <v>45789</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="F31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/template/horaire.xlsx
+++ b/template/horaire.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="h:\Users\Simon\Desktop\BD1\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFED3983-5322-4A2F-AF02-3E2C23F193E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A509A7-DA58-43A3-AFD6-0B8933F2D042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20220" windowHeight="15600" xr2:uid="{A6EAA84D-6E98-BB4B-8698-E4F48E48897D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A6EAA84D-6E98-BB4B-8698-E4F48E48897D}"/>
   </bookViews>
   <sheets>
     <sheet name="horaire" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="60">
   <si>
     <t xml:space="preserve"> Cours </t>
   </si>
@@ -222,6 +222,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="dd\ mmmm"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -253,7 +256,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,11 +594,12 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="45" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.375" customWidth="1"/>
@@ -1117,6 +1121,9 @@
       <c r="G20" t="s">
         <v>42</v>
       </c>
+      <c r="H20" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -1294,6 +1301,9 @@
         <v>9</v>
       </c>
       <c r="G27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" t="s">
         <v>9</v>
       </c>
     </row>

--- a/template/horaire.xlsx
+++ b/template/horaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="h:\Users\Simon\Desktop\BD1\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A509A7-DA58-43A3-AFD6-0B8933F2D042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB437F83-5FBF-4396-9894-2637F0E9BA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A6EAA84D-6E98-BB4B-8698-E4F48E48897D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="60">
   <si>
     <t xml:space="preserve"> Cours </t>
   </si>
@@ -593,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74CAC760-03D5-2B4F-8B8A-787BA19A8433}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -658,8 +658,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
+      <c r="A3">
+        <v>1</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -710,8 +710,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
+      <c r="A5">
+        <v>2</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -762,8 +762,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
+      <c r="A7">
+        <v>3</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -814,8 +814,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
+      <c r="A9">
+        <v>4</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -866,8 +866,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
+      <c r="A11">
+        <v>5</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -918,8 +918,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>9</v>
+      <c r="A13">
+        <v>6</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -970,8 +970,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>9</v>
+      <c r="A15">
+        <v>7</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -1022,8 +1022,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>9</v>
+      <c r="A17">
+        <v>8</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -1074,7 +1074,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19">
         <v>9</v>
       </c>
       <c r="B19">
@@ -1126,8 +1126,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>9</v>
+      <c r="A21">
+        <v>10</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -1178,8 +1178,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>9</v>
+      <c r="A23">
+        <v>11</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -1230,8 +1230,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>9</v>
+      <c r="A25">
+        <v>12</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -1282,8 +1282,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>9</v>
+      <c r="A27">
+        <v>13</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -1334,8 +1334,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>9</v>
+      <c r="A29">
+        <v>14</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -1386,8 +1386,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>9</v>
+      <c r="A31">
+        <v>15</v>
       </c>
       <c r="B31">
         <v>30</v>

--- a/template/horaire.xlsx
+++ b/template/horaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="h:\Users\Simon\Desktop\BD1\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB437F83-5FBF-4396-9894-2637F0E9BA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449D1C71-5D82-40F0-8771-5A943D4A64B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A6EAA84D-6E98-BB4B-8698-E4F48E48897D}"/>
   </bookViews>
@@ -594,15 +594,18 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="18.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="45" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.375" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -658,9 +661,6 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
       <c r="B3">
         <v>2</v>
       </c>
@@ -710,9 +710,6 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
       <c r="B5">
         <v>4</v>
       </c>
@@ -762,9 +759,6 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>3</v>
-      </c>
       <c r="B7">
         <v>6</v>
       </c>
@@ -814,9 +808,6 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>4</v>
-      </c>
       <c r="B9">
         <v>8</v>
       </c>
@@ -866,9 +857,6 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>5</v>
-      </c>
       <c r="B11">
         <v>10</v>
       </c>
@@ -918,9 +906,6 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>6</v>
-      </c>
       <c r="B13">
         <v>12</v>
       </c>
@@ -970,9 +955,6 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>7</v>
-      </c>
       <c r="B15">
         <v>14</v>
       </c>
@@ -1022,9 +1004,6 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>8</v>
-      </c>
       <c r="B17">
         <v>16</v>
       </c>
@@ -1074,9 +1053,6 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>9</v>
-      </c>
       <c r="B19">
         <v>18</v>
       </c>
@@ -1126,9 +1102,6 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>10</v>
-      </c>
       <c r="B21">
         <v>20</v>
       </c>
@@ -1178,9 +1151,6 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>11</v>
-      </c>
       <c r="B23">
         <v>22</v>
       </c>
@@ -1230,9 +1200,6 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>12</v>
-      </c>
       <c r="B25">
         <v>24</v>
       </c>
@@ -1282,9 +1249,6 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>13</v>
-      </c>
       <c r="B27">
         <v>26</v>
       </c>
@@ -1334,9 +1298,6 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>14</v>
-      </c>
       <c r="B29">
         <v>28</v>
       </c>
@@ -1386,9 +1347,6 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>15</v>
-      </c>
       <c r="B31">
         <v>30</v>
       </c>

--- a/template/horaire.xlsx
+++ b/template/horaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="h:\Users\Simon\Desktop\BD1\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449D1C71-5D82-40F0-8771-5A943D4A64B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CAF4F44-233F-4B1C-ABC6-48835639273A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A6EAA84D-6E98-BB4B-8698-E4F48E48897D}"/>
   </bookViews>
@@ -223,7 +223,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="dd\ mmmm"/>
+    <numFmt numFmtId="164" formatCode="dd\ mmmm"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -256,7 +256,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -594,7 +594,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="C31" sqref="C3:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
